--- a/biology/Botanique/Alluaudia/Alluaudia.xlsx
+++ b/biology/Botanique/Alluaudia/Alluaudia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alluaudia est un genre de plantes succulentes de la famille des Didiereaceae.  Ce genre compte six espèces, toutes endémiques des régions arides du sud de Madagascar[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alluaudia est un genre de plantes succulentes de la famille des Didiereaceae.  Ce genre compte six espèces, toutes endémiques des régions arides du sud de Madagascar
 Il est dédié à l'explorateur français Charles Alluaud (1861-1949).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alluaudia ascendens (Drake) Drake 1903
 Alluaudia comosa (Drake) Drake 1903
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes se présentent comme des buissons de tiges de plusieurs mètres de haut avec des épines pour la défense contre les herbivores dont les lémuriens.
 </t>
@@ -578,7 +594,9 @@
           <t>Gallery</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Alluaudia ascendens
